--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/New_York_Knicks.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/New_York_Knicks.xlsx
@@ -588,79 +588,79 @@
         <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="G2" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H2" t="n">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="I2" t="n">
-        <v>0.434</v>
+        <v>0.43</v>
       </c>
       <c r="J2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L2" t="n">
         <v>0.333</v>
       </c>
       <c r="M2" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N2" t="n">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="O2" t="n">
-        <v>0.48</v>
+        <v>0.474</v>
       </c>
       <c r="P2" t="n">
-        <v>0.486</v>
+        <v>0.482</v>
       </c>
       <c r="Q2" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R2" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S2" t="n">
-        <v>0.75</v>
+        <v>0.758</v>
       </c>
       <c r="T2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U2" t="n">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="V2" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="W2" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AA2" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3">
@@ -676,64 +676,64 @@
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="G3" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H3" t="n">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="I3" t="n">
         <v>0.407</v>
       </c>
       <c r="J3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L3" t="n">
-        <v>0.347</v>
+        <v>0.357</v>
       </c>
       <c r="M3" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N3" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="O3" t="n">
-        <v>0.446</v>
+        <v>0.44</v>
       </c>
       <c r="P3" t="n">
-        <v>0.475</v>
+        <v>0.478</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R3" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="S3" t="n">
-        <v>0.704</v>
+        <v>0.718</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U3" t="n">
         <v>118</v>
       </c>
       <c r="V3" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="W3" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
@@ -742,13 +742,13 @@
         <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AB3" t="n">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
@@ -764,79 +764,79 @@
         <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="G4" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H4" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I4" t="n">
-        <v>0.415</v>
+        <v>0.413</v>
       </c>
       <c r="J4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L4" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="M4" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O4" t="n">
-        <v>0.456</v>
+        <v>0.453</v>
       </c>
       <c r="P4" t="n">
-        <v>0.527</v>
+        <v>0.525</v>
       </c>
       <c r="Q4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S4" t="n">
-        <v>0.767</v>
+        <v>0.781</v>
       </c>
       <c r="T4" t="n">
         <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V4" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="W4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="n">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
@@ -852,79 +852,79 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="G5" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H5" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I5" t="n">
-        <v>0.415</v>
+        <v>0.417</v>
       </c>
       <c r="J5" t="n">
         <v>51</v>
       </c>
       <c r="K5" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L5" t="n">
-        <v>0.436</v>
+        <v>0.425</v>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O5" t="n">
-        <v>0.389</v>
+        <v>0.408</v>
       </c>
       <c r="P5" t="n">
-        <v>0.539</v>
+        <v>0.534</v>
       </c>
       <c r="Q5" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R5" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="S5" t="n">
         <v>0.824</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U5" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V5" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="W5" t="n">
         <v>49</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="n">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
@@ -940,22 +940,22 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -965,34 +965,34 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="P6" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="Q6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S6" t="n">
-        <v>0.609</v>
+        <v>0.625</v>
       </c>
       <c r="T6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V6" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="W6" t="n">
         <v>15</v>
@@ -1001,16 +1001,16 @@
         <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="n">
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
@@ -1026,43 +1026,43 @@
         <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="G7" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H7" t="n">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="J7" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L7" t="n">
-        <v>0.347</v>
+        <v>0.341</v>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N7" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O7" t="n">
-        <v>0.455</v>
+        <v>0.464</v>
       </c>
       <c r="P7" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="Q7" t="n">
         <v>39</v>
@@ -1077,28 +1077,28 @@
         <v>11</v>
       </c>
       <c r="U7" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="V7" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="W7" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB7" t="n">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
@@ -1114,43 +1114,43 @@
         <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H8" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I8" t="n">
-        <v>0.455</v>
+        <v>0.452</v>
       </c>
       <c r="J8" t="n">
         <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L8" t="n">
-        <v>0.408</v>
+        <v>0.397</v>
       </c>
       <c r="M8" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N8" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="O8" t="n">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="P8" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="Q8" t="n">
         <v>28</v>
@@ -1162,16 +1162,16 @@
         <v>0.966</v>
       </c>
       <c r="T8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U8" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="W8" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="X8" t="n">
         <v>18</v>
@@ -1186,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9">
@@ -1290,43 +1290,43 @@
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="G10" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H10" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I10" t="n">
-        <v>0.531</v>
+        <v>0.539</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L10" t="n">
-        <v>0.184</v>
+        <v>0.195</v>
       </c>
       <c r="M10" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N10" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O10" t="n">
-        <v>0.657</v>
+        <v>0.667</v>
       </c>
       <c r="P10" t="n">
-        <v>0.556</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="Q10" t="n">
         <v>35</v>
@@ -1338,13 +1338,13 @@
         <v>0.761</v>
       </c>
       <c r="T10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U10" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V10" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W10" t="n">
         <v>23</v>
@@ -1353,16 +1353,16 @@
         <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
         <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="n">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -1466,22 +1466,22 @@
         <v>36</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" t="n">
-        <v>0.484</v>
+        <v>0.469</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" t="n">
-        <v>0.536</v>
+        <v>0.517</v>
       </c>
       <c r="P12" t="n">
-        <v>0.484</v>
+        <v>0.469</v>
       </c>
       <c r="Q12" t="n">
         <v>7</v>
@@ -1514,13 +1514,13 @@
         <v>0.778</v>
       </c>
       <c r="T12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V12" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W12" t="n">
         <v>8</v>
@@ -1532,10 +1532,10 @@
         <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="n">
         <v>37</v>
@@ -1554,31 +1554,31 @@
         <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
+        <v>21</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
         <v>19</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>17</v>
-      </c>
       <c r="L13" t="n">
-        <v>0.412</v>
+        <v>0.421</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.553</v>
+        <v>0.571</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
         <v>3</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>3</v>
@@ -1624,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -1640,13 +1640,13 @@
         <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1686,22 +1686,22 @@
         <v>0.75</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
         <v>12</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
         <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z14" t="n">
         <v>2</v>
@@ -1726,43 +1726,43 @@
         <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4</v>
+        <v>0.286</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>0.333</v>
+        <v>0.25</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5</v>
+        <v>0.357</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1814,22 +1814,22 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>0.111</v>
+        <v>0.182</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,38 +1841,40 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
         <v>1</v>
@@ -1884,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1970,77 +1972,77 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>5810</v>
+        <v>6050</v>
       </c>
       <c r="G18" t="n">
-        <v>930</v>
+        <v>966</v>
       </c>
       <c r="H18" t="n">
-        <v>2101</v>
+        <v>2187</v>
       </c>
       <c r="I18" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="J18" t="n">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="K18" t="n">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="L18" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="M18" t="n">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="N18" t="n">
-        <v>1221</v>
+        <v>1277</v>
       </c>
       <c r="O18" t="n">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
       <c r="P18" t="n">
-        <v>0.519</v>
+        <v>0.517</v>
       </c>
       <c r="Q18" t="n">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="R18" t="n">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="S18" t="n">
-        <v>0.776</v>
+        <v>0.782</v>
       </c>
       <c r="T18" t="n">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="U18" t="n">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="V18" t="n">
-        <v>1096</v>
+        <v>1132</v>
       </c>
       <c r="W18" t="n">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="X18" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Y18" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Z18" t="n">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="AA18" t="n">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="AB18" t="n">
-        <v>2571</v>
+        <v>2673</v>
       </c>
     </row>
   </sheetData>
